--- a/emnca/emnca/outputs/visuals/randomly_picked_best_rules.xlsx
+++ b/emnca/emnca/outputs/visuals/randomly_picked_best_rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyamjain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanyamjain/Desktop/RA/mnca/mnca/emnca/emnca/outputs/visuals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F39D9DE-40E5-0B4B-A183-261708D2C025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418AA539-8A22-574C-A6E4-93FA724FFAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{44BF9B90-D9D5-604B-8372-05A59CBB5BC9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{44BF9B90-D9D5-604B-8372-05A59CBB5BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
